--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofnorthflorida-my.sharepoint.com/personal/n01480000_unf_edu/Documents/9_fall_2024/cnt6707_network-client-server-arch/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{065B0827-4B68-49AF-855E-4D4EABAB34BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{065B0827-4B68-49AF-855E-4D4EABAB34BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D545AEA9-9401-48CD-9EFF-0F80A0397A7C}"/>
   <bookViews>
-    <workbookView xWindow="2350" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{92423EED-CFDD-43B3-9C62-8DD446C01C4D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{92423EED-CFDD-43B3-9C62-8DD446C01C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -320,6 +320,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>File Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -385,6 +440,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -657,6 +767,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>File Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -722,6 +887,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>KB/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -963,6 +1183,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>File Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1028,6 +1303,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>KB/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3206,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F68E8F-0037-428D-B146-2868446EE3E8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
